--- a/data/outputs/01_BASE_RESULTADO_ORCAMENTOS_CONCATENADOS.xlsx
+++ b/data/outputs/01_BASE_RESULTADO_ORCAMENTOS_CONCATENADOS.xlsx
@@ -18919,7 +18919,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -18993,7 +18993,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -19030,7 +19030,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -19289,7 +19289,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -19326,7 +19326,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -19363,7 +19363,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -19400,7 +19400,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -19474,7 +19474,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -20177,7 +20177,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -20251,7 +20251,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -20362,7 +20362,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -20880,7 +20880,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -20917,7 +20917,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -20954,7 +20954,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -20991,7 +20991,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -21028,7 +21028,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -21102,7 +21102,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -21139,7 +21139,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -21213,7 +21213,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -21472,7 +21472,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -21620,7 +21620,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -21694,7 +21694,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -21805,7 +21805,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -21953,7 +21953,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -22027,7 +22027,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -22101,7 +22101,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -22249,7 +22249,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -22286,7 +22286,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -22323,7 +22323,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -22397,7 +22397,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -22582,7 +22582,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -23211,7 +23211,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -23322,7 +23322,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -23359,7 +23359,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -23692,7 +23692,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -23729,7 +23729,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -23766,7 +23766,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -23877,7 +23877,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -23951,7 +23951,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -24062,7 +24062,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -24173,7 +24173,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -24210,7 +24210,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -24247,7 +24247,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -24358,7 +24358,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -24432,7 +24432,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -24506,7 +24506,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -24580,7 +24580,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -24617,7 +24617,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -24728,7 +24728,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -24839,7 +24839,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -24950,7 +24950,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -25098,7 +25098,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -25209,7 +25209,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -25357,7 +25357,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -25394,7 +25394,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -25431,7 +25431,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -25468,7 +25468,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -25690,7 +25690,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -25875,7 +25875,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -25912,7 +25912,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -25986,7 +25986,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -26023,7 +26023,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -26060,7 +26060,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -26097,7 +26097,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -26134,7 +26134,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -26245,7 +26245,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -26282,7 +26282,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -26504,7 +26504,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -26615,7 +26615,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -26652,7 +26652,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -26874,7 +26874,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -27096,7 +27096,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -27170,7 +27170,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -27281,7 +27281,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -27318,7 +27318,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -27355,7 +27355,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -27429,7 +27429,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -27466,7 +27466,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -27540,7 +27540,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -27577,7 +27577,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -27651,7 +27651,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -27762,7 +27762,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -27836,7 +27836,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -27910,7 +27910,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -27984,7 +27984,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -28021,7 +28021,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -28132,7 +28132,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -28169,7 +28169,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -28206,7 +28206,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -28354,7 +28354,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -28465,7 +28465,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -28502,7 +28502,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -28539,7 +28539,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -28613,7 +28613,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -28724,7 +28724,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -28798,7 +28798,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -28835,7 +28835,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -28872,7 +28872,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -28909,7 +28909,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -28946,7 +28946,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -28983,7 +28983,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -29020,7 +29020,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -29094,7 +29094,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -29168,7 +29168,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -29242,7 +29242,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -29279,7 +29279,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -29353,7 +29353,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -29390,7 +29390,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -29464,7 +29464,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -29501,7 +29501,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -29538,7 +29538,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -29612,7 +29612,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -29649,7 +29649,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -29686,7 +29686,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -29723,7 +29723,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -29797,7 +29797,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -29834,7 +29834,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -29871,7 +29871,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -29982,7 +29982,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -30130,7 +30130,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -30167,7 +30167,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -30204,7 +30204,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -30278,7 +30278,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -30315,7 +30315,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -30352,7 +30352,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -30389,7 +30389,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -30426,7 +30426,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -30463,7 +30463,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -30500,7 +30500,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -30537,7 +30537,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -30648,7 +30648,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -30722,7 +30722,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -30759,7 +30759,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -30796,7 +30796,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -30870,7 +30870,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -30907,7 +30907,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -30944,7 +30944,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -31129,7 +31129,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -31166,7 +31166,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -31203,7 +31203,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -31240,7 +31240,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -31277,7 +31277,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -31314,7 +31314,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -31388,7 +31388,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -31610,7 +31610,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -31647,7 +31647,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -31684,7 +31684,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -31721,7 +31721,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -31758,7 +31758,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -31906,7 +31906,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -31980,7 +31980,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -32017,7 +32017,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -32054,7 +32054,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -32091,7 +32091,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -32128,7 +32128,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -32202,7 +32202,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -32239,7 +32239,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -32313,7 +32313,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -32387,7 +32387,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -32424,7 +32424,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -32498,7 +32498,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -32535,7 +32535,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -32572,7 +32572,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -32609,7 +32609,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -32646,7 +32646,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -32683,7 +32683,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -32720,7 +32720,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -32757,7 +32757,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -32794,7 +32794,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -32942,7 +32942,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -32979,7 +32979,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -33016,7 +33016,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -33090,7 +33090,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -33201,7 +33201,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -48180,12 +48180,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LONDRINA AV-TIRADENTES</t>
+          <t>ITAU RECIFE BOA VIAGEM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -48222,12 +48222,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LONDRINA AV-TIRADENTES</t>
+          <t>ITAU RECIFE BOA VIAGEM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -48247,7 +48247,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sample_padrao2_ello_nu_nordeste.xlsx</t>
+          <t>sample_padrao2_ello_nu_nordeste_double_qtd - Copia.xlsm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
